--- a/excel/uploads/Book1.xlsx
+++ b/excel/uploads/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph Everest\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF55EE-A4EE-40D3-9B24-823EEE398D29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB29BB-FB0D-4BB5-B873-A203ECA80F67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{96FB1181-EF88-411C-B4A3-A86F0D0CBA25}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>4000/100/10/1</t>
   </si>
@@ -42,6 +42,30 @@
   </si>
   <si>
     <t>junior</t>
+  </si>
+  <si>
+    <t>4000/100/10/2</t>
+  </si>
+  <si>
+    <t>4000/100/10/3</t>
+  </si>
+  <si>
+    <t>4000/100/10/4</t>
+  </si>
+  <si>
+    <t>4000/100/10/5</t>
+  </si>
+  <si>
+    <t>jljh</t>
+  </si>
+  <si>
+    <t>jkhdsfsd</t>
+  </si>
+  <si>
+    <t>asfdsfds</t>
+  </si>
+  <si>
+    <t>oiejwld</t>
   </si>
 </sst>
 </file>
@@ -49,12 +73,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -82,7 +112,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,7 +430,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,10 +465,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>43759</v>
@@ -447,7 +477,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>100000</v>
+        <v>3000</v>
       </c>
       <c r="F2" t="s">
         <v>3</v>
@@ -455,10 +485,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>43759</v>
@@ -467,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>100000</v>
+        <v>9000</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -475,10 +505,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>43759</v>
@@ -487,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -495,10 +525,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>43759</v>
@@ -507,13 +537,14 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>100000</v>
+        <v>8000</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
